--- a/medicine/Enfance/Horatio_Alger/Horatio_Alger.xlsx
+++ b/medicine/Enfance/Horatio_Alger/Horatio_Alger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horatio Alger, Jr, né le 13 janvier 1832 à Chelsea, dans l'État du Massachusetts et mort le 18 juillet 1899, à Natick également dans le Massachusetts, est un journaliste et romancier américain qui s'est fait connaitre dans la fin du XIXe siècle et au début du XXe siècle, par ses romans qui font l’apologie du rêve américain, de la réussite en partant de rien et qui eurent une grande influence sur la société américaine et continuent toujours d'être lus.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Horatio Alger, Jr est le fils de Horatio Alger, Sr, un pasteur unitarien et d'Olive Augusta Fenno. Après ses études secondaires, il est accepté à l'Université Harvard, après avoir obtenu son Bachelor of Arts (licence) en 1852 avec les honneurs, il est admis à la fraternité Phi Beta Kappa.  En 1857, il poursuit ses études universitaires faisant des études de théologie à Harvard Divinity School, qu'il achève en 1860[1],[2],[3]
-Carrière
-Horatio Alger commence sa carrière après ses à études Harvard en 1852 comme professeur et journaliste, il écrit des articles littéraires pour divers journaux et magazines comme le True Flag, l'Olive Branch ou l'American Union. En 1855, il publie son premier livre Bertha's Christmas Vision: An Autumn Sheaf[4], composé de onze nouvelles sentimentales et huit poèmes. Ce recueil bénéficie d'une recension favorable notamment par le Monthly Religious Magazine, qui parle lui comme d'un auteur prometteur[3]. En 1857, il publie un poème satirique Nothing to Do : a Tilt at Our Best Society[5] dans le style de William Allen Butler (en). Pendant ses études de théologie, il écrit deux romans moraux Manson the Miser et The Mad Heiress qui sont publiés dans The Sun (New York). Après ses études de théologie, il part en Europe et visite la France, la Grande-Bretagne et l'Italie pendant dix mois et envoie des articles narrant ses découvertes au Sun de New York. Quand il rentre aux États-Unis, la guerre de Sécession éclate. En raison de sa myopie et de sa petite taille, il est réformé. Ne pouvant se battre, il soutient par sa plume la cause de l'Union en publiant des articles patriotiques pour le Harper's Weekly[6] et la revue littéraire la North American Review[3].
-Puis Horatio Alger se lance dans la rédaction de romans à destination de la jeunesse avec la publication en 1864 de Frank's Campaign[7], dont le sujet est de montrer aux jeunes gens comment participer à la défaite des sudistes. En décembre 1864, il est ordonné pasteur de la paroisse unitarienne de Brewster dans le Massachusetts, mais il quitte son ministère en 1866 après des accusations de violences sexuelles commises sur des jeunes garçons, accusations qu'il n'a jamais réfutées. En avril 1866, il emménage à New York pour se consacrer uniquement à sa carrière littéraire en écrivant des livres pour les jeunes garçons[2],[3].
-À New York il se rapproche d'organisations sociales et philanthropiques implantées dans le bidonville des Five Points (Manhattan) comme la Young Men's Christian Association (YMCA), de la Children's Aid Society (en) qui y a construit la Newsboys' Lodging House[8], un bâtiment pour les jeunes sans abri[9]. Cette proximité auprès de jeunes défavorisés et la fascination qu'ils exercent sur Horatio du fait de leur maturité précoce a suscité des soupçons sur le fait qu'il serait pédéraste. Il puisera chez ces jeunes l'inspiration pour la création de héros partis de rien qui vont réussir, de jeunes qui malgré la misère, la prison, les quartiers insalubres, vont s'arracher de la pauvreté et de la criminalité pour connaître une trajectoire ascendante. La thématique des jeunes victimes de l'urbanisation et du capitalisme industriel est présente dans le genre du roman social avec des livres comme Les Mystères de Paris d'Eugène Sue (1842), The Mysteries of London (en) de George William McArthur Reynolds (1844), The Quaker City, or The Monks of Monk Hall (en) de George Lippard (1845), The Mysteries and Miseries of New York de Ned Buntline (en) (1848). Horatio Alger dédiabolise ces jeunes jugés dangereux par la bonne société. Ils sont dépeints comme étant également aptes à devenir des jeunes « comme il faut » (Gentle) pour peu qu'on leur tende la main. Ils aspirent tous à devenir des membres de la classe moyenne, ce qui est l'objet de son roman Ragged Dick (en) publié en 1868[10],[11].
-Vie personnelle
-Horatio Alger est inhumé au Glenwood Cemetery de Natick[12].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Horatio Alger, Jr est le fils de Horatio Alger, Sr, un pasteur unitarien et d'Olive Augusta Fenno. Après ses études secondaires, il est accepté à l'Université Harvard, après avoir obtenu son Bachelor of Arts (licence) en 1852 avec les honneurs, il est admis à la fraternité Phi Beta Kappa.  En 1857, il poursuit ses études universitaires faisant des études de théologie à Harvard Divinity School, qu'il achève en 1860
 </t>
         </is>
       </c>
@@ -546,50 +557,367 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Horatio Alger commence sa carrière après ses à études Harvard en 1852 comme professeur et journaliste, il écrit des articles littéraires pour divers journaux et magazines comme le True Flag, l'Olive Branch ou l'American Union. En 1855, il publie son premier livre Bertha's Christmas Vision: An Autumn Sheaf, composé de onze nouvelles sentimentales et huit poèmes. Ce recueil bénéficie d'une recension favorable notamment par le Monthly Religious Magazine, qui parle lui comme d'un auteur prometteur. En 1857, il publie un poème satirique Nothing to Do : a Tilt at Our Best Society dans le style de William Allen Butler (en). Pendant ses études de théologie, il écrit deux romans moraux Manson the Miser et The Mad Heiress qui sont publiés dans The Sun (New York). Après ses études de théologie, il part en Europe et visite la France, la Grande-Bretagne et l'Italie pendant dix mois et envoie des articles narrant ses découvertes au Sun de New York. Quand il rentre aux États-Unis, la guerre de Sécession éclate. En raison de sa myopie et de sa petite taille, il est réformé. Ne pouvant se battre, il soutient par sa plume la cause de l'Union en publiant des articles patriotiques pour le Harper's Weekly et la revue littéraire la North American Review.
+Puis Horatio Alger se lance dans la rédaction de romans à destination de la jeunesse avec la publication en 1864 de Frank's Campaign, dont le sujet est de montrer aux jeunes gens comment participer à la défaite des sudistes. En décembre 1864, il est ordonné pasteur de la paroisse unitarienne de Brewster dans le Massachusetts, mais il quitte son ministère en 1866 après des accusations de violences sexuelles commises sur des jeunes garçons, accusations qu'il n'a jamais réfutées. En avril 1866, il emménage à New York pour se consacrer uniquement à sa carrière littéraire en écrivant des livres pour les jeunes garçons,.
+À New York il se rapproche d'organisations sociales et philanthropiques implantées dans le bidonville des Five Points (Manhattan) comme la Young Men's Christian Association (YMCA), de la Children's Aid Society (en) qui y a construit la Newsboys' Lodging House, un bâtiment pour les jeunes sans abri. Cette proximité auprès de jeunes défavorisés et la fascination qu'ils exercent sur Horatio du fait de leur maturité précoce a suscité des soupçons sur le fait qu'il serait pédéraste. Il puisera chez ces jeunes l'inspiration pour la création de héros partis de rien qui vont réussir, de jeunes qui malgré la misère, la prison, les quartiers insalubres, vont s'arracher de la pauvreté et de la criminalité pour connaître une trajectoire ascendante. La thématique des jeunes victimes de l'urbanisation et du capitalisme industriel est présente dans le genre du roman social avec des livres comme Les Mystères de Paris d'Eugène Sue (1842), The Mysteries of London (en) de George William McArthur Reynolds (1844), The Quaker City, or The Monks of Monk Hall (en) de George Lippard (1845), The Mysteries and Miseries of New York de Ned Buntline (en) (1848). Horatio Alger dédiabolise ces jeunes jugés dangereux par la bonne société. Ils sont dépeints comme étant également aptes à devenir des jeunes « comme il faut » (Gentle) pour peu qu'on leur tende la main. Ils aspirent tous à devenir des membres de la classe moyenne, ce qui est l'objet de son roman Ragged Dick (en) publié en 1868,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Horatio Alger est inhumé au Glenwood Cemetery de Natick.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les romans d'Horatio Alger ont connu de nombreuses rééditions jusqu'à maintenant et la plupart ont été réédités entre 2010 et 2020 sous forme de livres numériques[13].
-Série Ragged Dick
-(en-US) Ragged Dick (volume 1), ReadaClassic, 1868, rééd. 1 février 2011, 136 p. (ISBN 9781611044904, lire en ligne)[14],
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les romans d'Horatio Alger ont connu de nombreuses rééditions jusqu'à maintenant et la plupart ont été réédités entre 2010 et 2020 sous forme de livres numériques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Ragged Dick</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en-US) Ragged Dick (volume 1), ReadaClassic, 1868, rééd. 1 février 2011, 136 p. (ISBN 9781611044904, lire en ligne),
 (en-US) Fame and Fortune (Ragged Dick vol. 2), 1st World Library - Literary Society, 1868, rééd. 15 juin 2006, 279 p. (ISBN 9781421821146, lire en ligne),
 (en-US) Mark the Match Boy (Ragged Dick; vol. 3), Polyglot Press, 1869, rééd. 2002, 195 p. (ISBN 9781411500259),
 (en-US) Rough and Ready (Ragged Dick vol. 4), Kessinger Publishing, 1869, rééd. 16 avril 2004, 304 p. (ISBN 9781417911684),
 (en-US) Ben, the Luggage Boy (Ragged Dick vol. 5), Kessinger Publishing, 1870, rééd. 13 septembre 2007, 288 p. (ISBN 9780548539330),
 (en-US) Rufus and Rose, (Ragged Dick vol. 6), Polyglot Press, 1870, rééd. 1 août 2005, 304 p. (ISBN 9781411500426, lire en ligne),
-(en-US) Ragged Dick &amp; Mark, the Match Boy, Touchstone Books, 1962, rééd. 1 octobre 1998, 384 p. (ISBN 9780684842905),
-Série Tattered Tom
-(en-US) Tattered Tom: Or, the Story of a Street Arab, (Tattered Tom vol. 1), Polyglot Press, 1871, rééd. 1 août 2005, 188 p. (ISBN 9781411500549),
+(en-US) Ragged Dick &amp; Mark, the Match Boy, Touchstone Books, 1962, rééd. 1 octobre 1998, 384 p. (ISBN 9780684842905),</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Tattered Tom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en-US) Tattered Tom: Or, the Story of a Street Arab, (Tattered Tom vol. 1), Polyglot Press, 1871, rééd. 1 août 2005, 188 p. (ISBN 9781411500549),
 (en-US) Paul the Peddler, (Tattered Tom vol. 2), Cosimo Classics, 1871, rééd. 22 décembre 2005, 252 p. (ISBN 9781596057463),
 (en-US) Phil the Fiddler: Or, the Story of a Young Street Musician, (Tattered Tom vol. 3), Echo Library, 1872, rééd. 21 août 2006, 112 p. (ISBN 9781406806670, lire en ligne),
 (en-US) Julius the Street Boy: Or Out West (Tattered Tom vol. 5), Kessinger Publishing, 1874, rééd. 21 novembre 2009, 274 p. (ISBN 9781120633408),
 (en-US) The Young Outlaw; or, Adrift in the Streets (Tattered Tom  vol. 6), Fredonia Books, 1875, rééd. 29 août 2003, 256 p. (ISBN 9781410103505, lire en ligne),
-(en-US) Sam's Chance and How He Improved It (Tattered Tom vol. 7), Bottom of the Hill Publishing, 1876, rééd. 1 juin 2014, 128 p. (ISBN 9781483705170, lire en ligne),
-Série Brave and Bold
-(en-US) Brave and Bold (volume 1), 1st World Library - Literary Society, 1874, rééd. 1 janvier 2006, 280 p. (ISBN 9781421814520),
+(en-US) Sam's Chance and How He Improved It (Tattered Tom vol. 7), Bottom of the Hill Publishing, 1876, rééd. 1 juin 2014, 128 p. (ISBN 9781483705170, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Brave and Bold</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en-US) Brave and Bold (volume 1), 1st World Library - Literary Society, 1874, rééd. 1 janvier 2006, 280 p. (ISBN 9781421814520),
 (en-US) Jack's Ward (Brave and Bold vol. 2), BiblioBazaar, 1875, rééd. 13 juillet 2006, 168 p. (ISBN 9781426408632),
-(en-US) Slow and Sure, Or, from the Street to the Shop (Brave and Bold vol. 3), Polyglot Press, 1872, rééd. 1 août 2005, 244 p. (ISBN 9781411500488),
-Série Luck and Pluck
-(en-US) Luck and Pluck, Or, John Oakley's Inheritance (Luck and Pluck vol. 1), Polyglot Press, 1869, rééd. 1 août 2005, 296 p. (ISBN 9781411500198),
+(en-US) Slow and Sure, Or, from the Street to the Shop (Brave and Bold vol. 3), Polyglot Press, 1872, rééd. 1 août 2005, 244 p. (ISBN 9781411500488),</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Luck and Pluck</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en-US) Luck and Pluck, Or, John Oakley's Inheritance (Luck and Pluck vol. 1), Polyglot Press, 1869, rééd. 1 août 2005, 296 p. (ISBN 9781411500198),
 (en-US) Sink or Swim: Or Harry Raymond's Resolve (Luck and Pluck vol. 2), Kessinger Publishing, 1870, rééd. 10 septembre 2010, 398 p. (ISBN 9781163913796),
 (en-US) Paddle Your Own Canoe or Strong and Steady (Luck and Pluck vol. 3), Westphalia Press, 1871, 1907, rééd. 14 mai 2013, 198 p. (ISBN 9780944285763, lire en ligne),
 (en-US) Strive and Succeed, Or, the Progress of Walter Conrad (Luck and Pluck vol. 4), Polyglot Press, 1872, rééd. 1 août 2005, 209 p. (ISBN 9781411500501),
 (en-US) Try and Trust (Luck and Pluck vol. 5), Bottom of the Hill Publishing, 1873, rééd. 1 juin 2014, 170 p. (ISBN 9781483705293),
 (en-US) Bound to Rise (Luck and Pluck, vol. 6), BiblioLife, 1873, rééd. 29 mai 2008, 176 p. (ISBN 9781434650597),
 (en-US) Risen from the Ranks, Harry Walton's Success (Luck and Pluck vol. 7), Bottom of the Hill Publishing, 1900, rééd. 1 juin 2014, 166 p. (ISBN 9781483705200, lire en ligne),
-(en-US) Herbert Carter's Legacy, Or, the Inventor's Son (Luck and Pluck vol. 8), Polyglot Press, 1909, rééd. 1 août 2005, 176 p. (ISBN 9781411500075, lire en ligne),
-Série Pacific
-(en-US) Ben's Nugget; Or, a Boy's Search for Fortune, a Story of the Pacific Coast, Polyglot Press, 1882, 1 août 2005, 275 p. (ISBN 9781931927734),
+(en-US) Herbert Carter's Legacy, Or, the Inventor's Son (Luck and Pluck vol. 8), Polyglot Press, 1909, rééd. 1 août 2005, 176 p. (ISBN 9781411500075, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Pacific</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en-US) Ben's Nugget; Or, a Boy's Search for Fortune, a Story of the Pacific Coast, Polyglot Press, 1882, 1 août 2005, 275 p. (ISBN 9781931927734),
 (en-US) The Young Adventurer, Book Jungle, 1910, rééd. 3 août 2009, 136 p. (ISBN 9781438522531),
-(en-US) The Young Adventurer, Or, Tom's Trip Across The Plains, Polyglot Press, 1910, rééd. 1 août 2005, 220 p. (ISBN 9781411500716),
-Série Campaign
-(en-US) Frank's Campaign (Campaign vol. 1), Kessinger Publishing, 1864, rééd. 17 juin 2004, 200 p. (ISBN 9781419120732, lire en ligne),
+(en-US) The Young Adventurer, Or, Tom's Trip Across The Plains, Polyglot Press, 1910, rééd. 1 août 2005, 220 p. (ISBN 9781411500716),</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Campaign</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(en-US) Frank's Campaign (Campaign vol. 1), Kessinger Publishing, 1864, rééd. 17 juin 2004, 200 p. (ISBN 9781419120732, lire en ligne),
 (en-US) Paul Prescott's Charge (Campaign vol. 2), Kessinger Publishing, 1865, rééd. 17 juin 2004, 218 p. (ISBN 9781419140426, lire en ligne),
-(en-US) Charlie Codman's Cruise: A Story for Boys (Campaign vol. 3), Kessinger Publishing, 1866, rééd. 16 février 2009, 320 p. (ISBN 9781104104009, lire en ligne),
-Autres, hors séries
-(en-US) Struggling Upward, Or, Luke Larkin's Luck, Dover Publications, 1868, rééd. octobre 1984, 178 p. (ISBN 9780486247373, lire en ligne),
+(en-US) Charlie Codman's Cruise: A Story for Boys (Campaign vol. 3), Kessinger Publishing, 1866, rééd. 16 février 2009, 320 p. (ISBN 9781104104009, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Horatio_Alger</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres, hors séries</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(en-US) Struggling Upward, Or, Luke Larkin's Luck, Dover Publications, 1868, rééd. octobre 1984, 178 p. (ISBN 9780486247373, lire en ligne),
 (en-US) Ralph Raymond's Heir, Polyglot Press, 9 juin 1869, rééd. 1 août 2005, 280 p. (ISBN 9781411500365, lire en ligne)
 (en-US) The Cash Boy, 1st World Library - Literary Society, 1875, rééd. 8 février 2006, 156 p. (ISBN 9781421801452),
 (en-US) The Telegraph Boy, Pinnacle Press, 1879, rééd. 24 mai 2017, 278 p. (ISBN 9781374869233, lire en ligne),
